--- a/AutomateKonakart/src/test/resources/TestData/konakarttestdata.xlsx
+++ b/AutomateKonakart/src/test/resources/TestData/konakarttestdata.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="13635" windowHeight="5880" activeTab="2"/>
+    <workbookView windowWidth="20490" windowHeight="7695" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
+    <sheet name="positive search item" sheetId="1" r:id="rId1"/>
+    <sheet name="negative search item" sheetId="4" r:id="rId2"/>
+    <sheet name="pro1descriptionandspecification" sheetId="2" r:id="rId3"/>
+    <sheet name="pro2descriptionandspecification" sheetId="3" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -19,51 +19,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="22">
+  <si>
+    <t>Dropdown Categories</t>
+  </si>
+  <si>
+    <t>Search Item</t>
+  </si>
+  <si>
+    <t>Computer Peripherals</t>
+  </si>
+  <si>
+    <t>Bundle Saver</t>
+  </si>
+  <si>
+    <t>Microsoft Internet Keyboard PS/2</t>
+  </si>
+  <si>
+    <t>Logitech Illuminated Keyboard</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Windows 8</t>
+  </si>
+  <si>
+    <t>Office Home and Student 2010</t>
+  </si>
+  <si>
+    <t>KonaKart Manual</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Nikon D5100 SLR</t>
+  </si>
+  <si>
+    <t>Kindle Fire HD</t>
+  </si>
+  <si>
+    <t>Galaxy Tab 2</t>
+  </si>
+  <si>
+    <t>iPad</t>
+  </si>
   <si>
     <t>text</t>
   </si>
   <si>
     <t>values</t>
-  </si>
-  <si>
-    <t>Computer Peripherals</t>
-  </si>
-  <si>
-    <t>Bundle Saver</t>
-  </si>
-  <si>
-    <t>Microsoft Internet Keyboard PS/2</t>
-  </si>
-  <si>
-    <t>Logitech Illuminated Keyboard</t>
-  </si>
-  <si>
-    <t>Software</t>
-  </si>
-  <si>
-    <t>Windows 8</t>
-  </si>
-  <si>
-    <t>Office Home and Student 2010</t>
-  </si>
-  <si>
-    <t>KonaKart Manual</t>
-  </si>
-  <si>
-    <t>Electronics</t>
-  </si>
-  <si>
-    <t>Nikon D5100 SLR</t>
-  </si>
-  <si>
-    <t>Kindle Fire HD</t>
-  </si>
-  <si>
-    <t>Galaxy Tab 2</t>
-  </si>
-  <si>
-    <t>iPad</t>
   </si>
   <si>
     <t>Description</t>
@@ -91,10 +97,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -113,7 +119,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,7 +141,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,15 +156,77 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,6 +240,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -165,39 +248,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,52 +257,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,25 +271,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,7 +409,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,145 +433,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,6 +480,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -486,8 +507,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -507,36 +543,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -551,8 +557,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,148 +567,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1038,7 +1044,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1158,10 +1164,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1247,7 +1253,7 @@
   <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -1259,18 +1265,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" ht="85" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1282,13 +1288,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="37.8571428571429" customWidth="1"/>
     <col min="2" max="2" width="25.2857142857143" customWidth="1"/>
@@ -1296,23 +1302,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" ht="210" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
